--- a/data/recent_noneu_per.xlsx
+++ b/data/recent_noneu_per.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\research_module\RM-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322B3D03-42C4-42E3-B106-3F67D0F8993D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202F8C36-23EB-4527-ACF6-292166AD6456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="84">
   <si>
     <t>Recent immigrants by sex, age and citizenship [lfst_rimgpnga$defaultview]</t>
   </si>
@@ -284,7 +284,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.##########"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -324,6 +324,22 @@
       <u/>
       <sz val="9"/>
       <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -379,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -434,6 +450,12 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -834,22 +856,22 @@
       <c r="A8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -1415,10 +1437,10 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:XFD10"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1568,7 +1590,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1743,7 +1765,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="20" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="13">
@@ -1883,20 +1905,20 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="13">
         <v>0.1</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>81</v>
+      <c r="C14" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.1</v>
       </c>
       <c r="F14" s="13">
         <v>0.1</v>
@@ -2093,14 +2115,14 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>81</v>
+      <c r="B20" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0.1</v>
       </c>
       <c r="D20" s="13">
         <v>0.1</v>
@@ -2303,7 +2325,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -2373,7 +2395,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -2478,7 +2500,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B31" s="14">
@@ -2583,7 +2605,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="19" t="s">
         <v>64</v>
       </c>
       <c r="B34" s="13">
@@ -2618,7 +2640,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -2653,7 +2675,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B36" s="13">
@@ -2688,7 +2710,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="19" t="s">
         <v>67</v>
       </c>
       <c r="B37" s="18">
@@ -2750,8 +2772,8 @@
       <c r="I38" s="13">
         <v>0.1</v>
       </c>
-      <c r="J38" s="6" t="s">
-        <v>81</v>
+      <c r="J38" s="6">
+        <v>0.15</v>
       </c>
       <c r="K38" s="13">
         <v>0.2</v>
